--- a/Manual_exploratory/inventario-pruebas-exploratorias.xlsx
+++ b/Manual_exploratory/inventario-pruebas-exploratorias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documentos\MAESTRÍA - ING. DE SOFTWARE\2021 - 12\Pruebas automatizadas\Semana 8 - Estrategia final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documentos\MAESTRÍA - ING. DE SOFTWARE\2021 - 12\Pruebas automatizadas\pruebas-e2e-grupo4\Manual_exploratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF658AD-2C9A-4933-94E5-3C4CCB775B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7FA20A-1660-49F5-A08A-B0083BA01D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>Issue #3</t>
-  </si>
-  <si>
-    <t>Issue #4</t>
   </si>
   <si>
     <t>Crear y publicar post</t>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t>Video PE-7.1</t>
+  </si>
+  <si>
+    <t>Issue #1</t>
+  </si>
+  <si>
+    <t>Issue #2</t>
   </si>
 </sst>
 </file>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -896,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -911,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
@@ -1043,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -1055,7 +1058,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>32</v>
@@ -1072,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>13</v>
@@ -1084,7 +1087,7 @@
         <v>52</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>32</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="14" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7">
         <v>44341</v>
@@ -1101,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>13</v>
@@ -1113,10 +1116,10 @@
         <v>51</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>32</v>
+        <v>75</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="31" x14ac:dyDescent="0.35">
@@ -1130,7 +1133,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>13</v>
@@ -1139,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>45</v>
@@ -1159,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>13</v>
@@ -1168,13 +1171,13 @@
         <v>16</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
@@ -1188,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
@@ -1197,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>47</v>
@@ -1217,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>13</v>
@@ -1226,13 +1229,13 @@
         <v>16</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
@@ -1246,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>13</v>
@@ -1255,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>49</v>
@@ -1275,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>13</v>
@@ -1284,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>50</v>
@@ -1304,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>13</v>
@@ -1313,10 +1316,10 @@
         <v>20</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>32</v>
@@ -1333,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>13</v>
@@ -1342,10 +1345,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>32</v>
@@ -1362,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>13</v>
@@ -1371,10 +1374,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>32</v>
@@ -1391,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>13</v>
@@ -1400,10 +1403,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>32</v>
@@ -1571,9 +1574,9 @@
     <hyperlink ref="I12" r:id="rId4" xr:uid="{AD14E802-D83A-4C26-B000-9B55CAC3A934}"/>
     <hyperlink ref="I15" r:id="rId5" xr:uid="{911838B7-0F18-47E4-9480-B3C10FF6C4C8}"/>
     <hyperlink ref="I16" r:id="rId6" xr:uid="{5C9328BC-B3F2-4268-86DD-C1BE642D7F00}"/>
-    <hyperlink ref="J16" r:id="rId7" xr:uid="{7CE073DE-C535-4ECF-B00C-0EF4EAAA854A}"/>
+    <hyperlink ref="J16" r:id="rId7" display="Issue #16" xr:uid="{7CE073DE-C535-4ECF-B00C-0EF4EAAA854A}"/>
     <hyperlink ref="I17" r:id="rId8" xr:uid="{44826885-8258-4771-A89B-5068A092DE17}"/>
-    <hyperlink ref="J18" r:id="rId9" xr:uid="{07DEBAD5-24E6-4E8D-ADF9-6E2C6FF51606}"/>
+    <hyperlink ref="J18" r:id="rId9" display="Issue #17" xr:uid="{07DEBAD5-24E6-4E8D-ADF9-6E2C6FF51606}"/>
     <hyperlink ref="I18" r:id="rId10" xr:uid="{1B00569B-2706-4198-BD05-7AA88E8705C2}"/>
     <hyperlink ref="I19" r:id="rId11" xr:uid="{8FAFFF9E-6F93-4C17-8DD5-18CF1CA103D3}"/>
     <hyperlink ref="I20" r:id="rId12" xr:uid="{71BF8285-5288-4DB8-9CE3-A5DF73A6AF44}"/>
@@ -1582,10 +1585,11 @@
     <hyperlink ref="I23" r:id="rId15" xr:uid="{A4950079-B10D-4298-A4EF-B39BE61026E4}"/>
     <hyperlink ref="I24" r:id="rId16" xr:uid="{08CDF699-519C-431C-A614-A830AF6277D8}"/>
     <hyperlink ref="I10" r:id="rId17" xr:uid="{C27737AC-5525-4DDD-BD06-6367882CB47E}"/>
+    <hyperlink ref="J14" r:id="rId18" xr:uid="{CE2EB1BA-C2E0-4C94-8539-F80824E8F66F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
-  <drawing r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <drawing r:id="rId20"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
